--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\UiPath\Bank_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0199B73-182E-4ED5-8659-439ED7ED7EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7896A650-C750-4DF0-BFBC-6E835DCDC7ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1956" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>BankCredential</t>
-  </si>
-  <si>
-    <t>BankCredential</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -139,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -163,6 +160,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF485056"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -194,6 +197,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -511,7 +515,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -579,8 +583,8 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
+      <c r="A4" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
